--- a/biology/Botanique/Jardin_de_l'Hospice-Debrousse/Jardin_de_l'Hospice-Debrousse.xlsx
+++ b/biology/Botanique/Jardin_de_l'Hospice-Debrousse/Jardin_de_l'Hospice-Debrousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Hospice-Debrousse</t>
+          <t>Jardin_de_l'Hospice-Debrousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de l'Hospice-Debrousse est un espace vert du 20e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Hospice-Debrousse</t>
+          <t>Jardin_de_l'Hospice-Debrousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin public est situé au no 148 rue de Bagnolet, à l'angle de la rue des Balkans.
 Le jardin de l'Hospice-Debrousse est desservi par la ligne 3 à la station Porte de Bagnolet.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Hospice-Debrousse</t>
+          <t>Jardin_de_l'Hospice-Debrousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de l'Hospice-Debrousse est ouvert en 1982, sur une partie de l'ancien parc du château de Bagnolet.
 À partir de 1770 le domaine est morcelé et le château est démoli. L'hospice Alquier-Debrousse y est fondé en 1884 par l'Assistance publique grâce au legs de la veuve du baron Alquier, Marie-Catherine Debrousse (d) (1841-1883).
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_de_l%27Hospice-Debrousse</t>
+          <t>Jardin_de_l'Hospice-Debrousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavillon de l'Ermitage qui est le seul vestige de l'ancien domaine du château de Bagnolet et la dernière folie parisienne de style Régence.
 			Le pavillon de l'Ermitage en hiver.
